--- a/{{cookiecutter.project_slug}}/cleaning_rules.xlsx
+++ b/{{cookiecutter.project_slug}}/cleaning_rules.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Cleaning Rules" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,27 +502,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>gender</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>flag_outliers</t>
+          <t>recode</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>method=iqr;threshold=3.0</t>
+          <t>"M":"Male";"F":"Female"</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Flag age outliers for review</t>
+          <t>Standardize gender codes</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -536,22 +536,26 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>recode</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>"M":"Male";"F":"Female"</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>respondent_id=HH001_M001</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Standardize gender codes</t>
+          <t>Fix specific incorrect gender entry for HH001_M001</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -560,27 +564,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>gender</t>
+          <t>gps_latitude</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>manual</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
+          <t>clamp</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>min=4.0;max=17.0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Fix specific incorrect gender entry for HH001_M001</t>
+          <t>Clamp to country boundaries</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -589,7 +593,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>gps_latitude</t>
+          <t>gps_longitude</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -599,7 +603,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>min=4.0;max=17.0</t>
+          <t>min=-17.0;max=5.0</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -618,23 +622,19 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>gps_longitude</t>
+          <t>name</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>clamp</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>min=-17.0;max=5.0</t>
-        </is>
-      </c>
+          <t>trim_whitespace</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Clamp to country boundaries</t>
+          <t>Remove leading/trailing spaces from names</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -647,19 +647,23 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>household_id</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>trim_whitespace</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+          <t>pad_zeros</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>length=6</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Remove leading/trailing spaces from names</t>
+          <t>Ensure consistent ID format</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -672,23 +676,23 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>household_id</t>
+          <t>submission_date</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pad_zeros</t>
+          <t>parse_date</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>length=6</t>
+          <t>format=%Y-%m-%d</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Ensure consistent ID format</t>
+          <t>Standardize date format</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -701,27 +705,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>submission_date</t>
+          <t>income</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>parse_date</t>
+          <t>replace_negative</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>format=%Y-%m-%d</t>
+          <t>replacement=0</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Standardize date format</t>
+          <t>Replace negative income with zero</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -730,29 +734,302 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>respondent_id=HH002_F001</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Correct age for specific respondent</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>income</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>replace_negative</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>replacement=0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Replace negative income with zero</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>condition=income&gt;1000000</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Fix obviously incorrect income values</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>education</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>condition=age&lt;18</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Primary</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Set appropriate education for children</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>occupation</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>row_index=15</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Student</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Fix specific row occupation</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>4</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>occupation</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>proper</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Apply proper case formatting to occupation names</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
         <v>2</v>
       </c>
-      <c r="G11" t="b">
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>industry</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>proper</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Apply proper case formatting to industry names</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>comments</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>lower</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Convert comments to lowercase for consistency</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>marital_status</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>regex_replace</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>exact=maried</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>married</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Fix common spelling error</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>education_level</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>regex_replace</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>startswith=prim</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Primary</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Standardize education levels starting with prim</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>phone_number</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>regex_replace</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>regex=\D</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Remove non-digit characters from phone numbers</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" t="b">
         <v>1</v>
       </c>
     </row>
